--- a/Data/New_Data_1.3/Mean per regional&sectoral employment.xlsx
+++ b/Data/New_Data_1.3/Mean per regional&sectoral employment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwonk\Guided Project\KNIME_Project\Data\New_Data_1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6369B907-AD64-4A37-B460-912362D6F4A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C06A96-5A21-4B9F-A8C1-B76D4E84B87E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{09CE5BCC-0517-47D8-B2AA-D2187A080C8B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Fujian</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -991,16 +994,22 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="35.83984375" customWidth="1"/>
-    <col min="4" max="4" width="11.62890625" customWidth="1"/>
-    <col min="5" max="5" width="15.05078125" customWidth="1"/>
+    <col min="3" max="3" width="30.3125" customWidth="1"/>
+    <col min="4" max="4" width="33.20703125" customWidth="1"/>
+    <col min="5" max="5" width="34.41796875" customWidth="1"/>
     <col min="6" max="6" width="15.83984375" customWidth="1"/>
-    <col min="7" max="7" width="14.3671875" customWidth="1"/>
+    <col min="7" max="7" width="18.47265625" customWidth="1"/>
+    <col min="8" max="8" width="12.68359375" customWidth="1"/>
+    <col min="9" max="9" width="16.5234375" customWidth="1"/>
+    <col min="10" max="10" width="14.1015625" customWidth="1"/>
+    <col min="11" max="11" width="19.7890625" customWidth="1"/>
+    <col min="12" max="12" width="17.15625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1719,6 +1728,35 @@
       </c>
       <c r="G33">
         <v>160590</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <f>SUM(B3:B33)</f>
+        <v>4298954</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:G34" si="0">SUM(C3:C33)</f>
+        <v>1227450</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>806177</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>310001</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>2192</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>6644782</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
